--- a/Excelsheets/AIML.xlsx
+++ b/Excelsheets/AIML.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>location</t>
   </si>
@@ -30,13 +30,10 @@
     <t>few clouds</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Kolkatta</t>
-  </si>
-  <si>
-    <t>overcast clouds</t>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>scattered clouds</t>
   </si>
 </sst>
 </file>
@@ -408,14 +405,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="11.42578125"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="14.7109375"/>
   </cols>
   <sheetData>
@@ -440,15 +438,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2"/>
+    <row r="4" spans="1:2"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
